--- a/Results SSE Parametrization.xlsx
+++ b/Results SSE Parametrization.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luich\Documents\tfm_hipocotile_simulations\4.ª fase - resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luich\Documents\GitHub\Master_Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5064D4C-8027-4886-964A-4DE30FC987A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E62971-18CB-48E7-B515-927EDE0F305F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>gamma G, Lc/Lb</t>
   </si>
   <si>
-    <t>SSEs</t>
-  </si>
-  <si>
     <t>PIF (p_PA)</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Productory Approach</t>
+  </si>
+  <si>
+    <t>WSSEs</t>
   </si>
 </sst>
 </file>
@@ -231,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -281,25 +281,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,7 +579,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +590,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -612,7 +607,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="9">
         <v>162.49100000000001</v>
@@ -629,12 +624,12 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="C3" s="22">
         <v>20.255199999999999</v>
       </c>
       <c r="D3" s="9">
@@ -661,10 +656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF8B777-6F6F-49E0-9C01-F911221D2BF1}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,77 +672,77 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="J3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="14">
         <v>174.542</v>
@@ -788,7 +783,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="14">
         <v>74.649199999999993</v>
@@ -829,7 +824,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="14">
         <v>84.131799999999998</v>
@@ -870,7 +865,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="14">
         <v>74.335300000000004</v>
@@ -911,7 +906,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="14">
         <v>74.702100000000002</v>
@@ -952,7 +947,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="14">
         <v>74.702100000000002</v>
@@ -993,7 +988,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="14">
         <v>74.404200000000003</v>
@@ -1034,7 +1029,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="14">
         <v>76.051599999999993</v>
@@ -1089,71 +1084,71 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="E14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="G14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="19" t="s">
+      <c r="J14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="19" t="s">
+      <c r="M14" s="19" t="s">
         <v>19</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="14">
         <v>174.542</v>
@@ -1194,7 +1189,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="14">
         <v>74.649199999999993</v>
@@ -1235,7 +1230,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="14">
         <v>84.131799999999998</v>
@@ -1276,7 +1271,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="14">
         <v>74.335300000000004</v>
@@ -1317,7 +1312,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="14">
         <v>60.9771</v>
@@ -1358,7 +1353,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="14">
         <v>60.9771</v>
@@ -1399,7 +1394,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="14">
         <v>84.0839</v>
@@ -1440,7 +1435,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="14">
         <v>84.077399999999997</v>
@@ -1480,160 +1475,58 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
+      <c r="A27" s="5"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
